--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_00-10.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_00-10.xlsx
@@ -52,7 +52,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] This enemy, known as a “Junkman,” has very high attack... We must deal with them carefully.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] This enemy, known as a 'Junkman,' has very high attack... We must deal with them carefully.
 </t>
   </si>
   <si>
